--- a/팀프로젝트/REST API 스펙 정의.xlsx
+++ b/팀프로젝트/REST API 스펙 정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\OneDrive\바탕 화면\코드프레소\YC-Tech-Academy-TeamProject\팀프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7E55F-5E0F-4BB7-91CF-7D090781625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F4FB0C-8590-4BCA-8975-B12A4C9BA1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{683A207D-141B-4AAD-AB56-A78263ACE708}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>CRUD</t>
   </si>
@@ -83,9 +83,6 @@
     <t>특정 여행일정 수정</t>
   </si>
   <si>
-    <t>PUT</t>
-  </si>
-  <si>
     <t>특정 여행일정 삭제</t>
   </si>
   <si>
@@ -95,16 +92,26 @@
     <t>메인화면 조회</t>
   </si>
   <si>
-    <t>회원 저장폼 조회</t>
-  </si>
-  <si>
     <t>회원 저장(생성)</t>
   </si>
   <si>
-    <t>여행 일정 저장폼 조회</t>
-  </si>
-  <si>
     <t>여행 일정 저장(생성)</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 저장화면 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 일정 저장화면 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schedules/{id}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -514,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B20E28-DAC3-44DD-9695-391D0442128C}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -536,7 +543,7 @@
     </row>
     <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -558,7 +565,7 @@
     </row>
     <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -569,10 +576,10 @@
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -591,7 +598,7 @@
     </row>
     <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -602,7 +609,7 @@
     </row>
     <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -627,18 +634,18 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
